--- a/mbs-perturbation/chatty/svm/chatty-svm-poly-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" t="n">
         <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3157894736842106</v>
+        <v>0.1764705882352942</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9081521739130435</v>
+        <v>0.8092391304347826</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9841269841269842</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9550724637681159</v>
+        <v>0.3072463768115942</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5130434782608695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3420289855072464</v>
+        <v>0.9840579710144928</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="C7" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06315789473684211</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7436594202898551</v>
+        <v>0.8169340924775707</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chatty/svm/chatty-svm-poly-results.xlsx
+++ b/mbs-perturbation/chatty/svm/chatty-svm-poly-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1764705882352942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8092391304347826</v>
+        <v>0.41875</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9841269841269842</v>
+        <v>0.916826923076923</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3072463768115942</v>
+        <v>0.9922705314009661</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9961352657004832</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9840579710144928</v>
+        <v>0.9990338164251209</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.22</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C7" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3206349206349207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8169340924775707</v>
+        <v>0.8646033073206987</v>
       </c>
     </row>
   </sheetData>
